--- a/Code/Results/Cases/Case_5_129/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_129/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9812750133823835</v>
+        <v>1.017559111064485</v>
       </c>
       <c r="D2">
-        <v>1.003499964226778</v>
+        <v>1.023407764977146</v>
       </c>
       <c r="E2">
-        <v>0.9903030030288306</v>
+        <v>1.018939353641001</v>
       </c>
       <c r="F2">
-        <v>0.9571077180409753</v>
+        <v>1.015923187398002</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038293036964869</v>
+        <v>1.02707312312399</v>
       </c>
       <c r="J2">
-        <v>1.004030583141123</v>
+        <v>1.022772538728435</v>
       </c>
       <c r="K2">
-        <v>1.014910753397613</v>
+        <v>1.026239292359949</v>
       </c>
       <c r="L2">
-        <v>1.001899106209321</v>
+        <v>1.02178408081615</v>
       </c>
       <c r="M2">
-        <v>0.9691988186735871</v>
+        <v>1.018776895882761</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9866823439261857</v>
+        <v>1.018641279331411</v>
       </c>
       <c r="D3">
-        <v>1.007552116354409</v>
+        <v>1.02421460950286</v>
       </c>
       <c r="E3">
-        <v>0.994654144169909</v>
+        <v>1.01985983518596</v>
       </c>
       <c r="F3">
-        <v>0.9653413883578653</v>
+        <v>1.017649398123509</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039845521827299</v>
+        <v>1.027276406361592</v>
       </c>
       <c r="J3">
-        <v>1.007542765242068</v>
+        <v>1.023489949910739</v>
       </c>
       <c r="K3">
-        <v>1.01808926986525</v>
+        <v>1.026853009402694</v>
       </c>
       <c r="L3">
-        <v>1.005355886309721</v>
+        <v>1.022510164933683</v>
       </c>
       <c r="M3">
-        <v>0.976437818827574</v>
+        <v>1.02030582566243</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9900885206399581</v>
+        <v>1.01934073110362</v>
       </c>
       <c r="D4">
-        <v>1.010103469913795</v>
+        <v>1.024735482784014</v>
       </c>
       <c r="E4">
-        <v>0.9974014011976886</v>
+        <v>1.020455173958533</v>
       </c>
       <c r="F4">
-        <v>0.9705138606334962</v>
+        <v>1.018765352390039</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040805932586319</v>
+        <v>1.027405610608922</v>
       </c>
       <c r="J4">
-        <v>1.009749206713585</v>
+        <v>1.023952868757091</v>
       </c>
       <c r="K4">
-        <v>1.020081465361995</v>
+        <v>1.027248272090583</v>
       </c>
       <c r="L4">
-        <v>1.007531290529478</v>
+        <v>1.022979096177411</v>
       </c>
       <c r="M4">
-        <v>0.9809816851167902</v>
+        <v>1.021293697580629</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.99149930978872</v>
+        <v>1.019634595154042</v>
       </c>
       <c r="D5">
-        <v>1.011159838366435</v>
+        <v>1.024954169127289</v>
       </c>
       <c r="E5">
-        <v>0.998540753600817</v>
+        <v>1.020705389772821</v>
       </c>
       <c r="F5">
-        <v>0.9726533566091475</v>
+        <v>1.019234264465888</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041199448457012</v>
+        <v>1.027459369549374</v>
       </c>
       <c r="J5">
-        <v>1.010661635264923</v>
+        <v>1.024147171354864</v>
       </c>
       <c r="K5">
-        <v>1.020904144203958</v>
+        <v>1.02741399762755</v>
       </c>
       <c r="L5">
-        <v>1.00843177916983</v>
+        <v>1.023176022035219</v>
       </c>
       <c r="M5">
-        <v>0.9828602242947314</v>
+        <v>1.021708660131189</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9917349748140499</v>
+        <v>1.019683925405109</v>
       </c>
       <c r="D6">
-        <v>1.011336275377618</v>
+        <v>1.024990870611201</v>
       </c>
       <c r="E6">
-        <v>0.9987311618837895</v>
+        <v>1.020747398351298</v>
       </c>
       <c r="F6">
-        <v>0.9730105936875381</v>
+        <v>1.01931298334031</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04126493007877</v>
+        <v>1.027468363163718</v>
       </c>
       <c r="J6">
-        <v>1.010813965983811</v>
+        <v>1.024179777564817</v>
       </c>
       <c r="K6">
-        <v>1.021041422131588</v>
+        <v>1.027441797725</v>
       </c>
       <c r="L6">
-        <v>1.008582168907412</v>
+        <v>1.023209074304714</v>
       </c>
       <c r="M6">
-        <v>0.9831738318280288</v>
+        <v>1.021778314528212</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9901074535384714</v>
+        <v>1.019344658455674</v>
       </c>
       <c r="D7">
-        <v>1.010117648013245</v>
+        <v>1.024738406015585</v>
       </c>
       <c r="E7">
-        <v>0.9974166856185462</v>
+        <v>1.020458517607056</v>
       </c>
       <c r="F7">
-        <v>0.9705425835357691</v>
+        <v>1.018771618928847</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04081123058659</v>
+        <v>1.027406331133</v>
       </c>
       <c r="J7">
-        <v>1.009761457328803</v>
+        <v>1.023955466248429</v>
       </c>
       <c r="K7">
-        <v>1.020092515580501</v>
+        <v>1.027250488262688</v>
       </c>
       <c r="L7">
-        <v>1.007543377303754</v>
+        <v>1.022981728345308</v>
       </c>
       <c r="M7">
-        <v>0.9810069084559194</v>
+        <v>1.021299243652166</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9831222917739149</v>
+        <v>1.017924998380114</v>
       </c>
       <c r="D8">
-        <v>1.004884473901368</v>
+        <v>1.023680692622323</v>
       </c>
       <c r="E8">
-        <v>0.9917880793002526</v>
+        <v>1.019250492143294</v>
       </c>
       <c r="F8">
-        <v>0.9599238336676326</v>
+        <v>1.016506784903975</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038827054407731</v>
+        <v>1.027142306924615</v>
       </c>
       <c r="J8">
-        <v>1.005231671555702</v>
+        <v>1.023015259973391</v>
       </c>
       <c r="K8">
-        <v>1.015998685902945</v>
+        <v>1.026447085118599</v>
       </c>
       <c r="L8">
-        <v>1.003080447393019</v>
+        <v>1.022029650078783</v>
       </c>
       <c r="M8">
-        <v>0.9716754925492221</v>
+        <v>1.019293909375985</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9700526431545083</v>
+        <v>1.015417280839279</v>
       </c>
       <c r="D9">
-        <v>0.9950876115498702</v>
+        <v>1.02180757455596</v>
       </c>
       <c r="E9">
-        <v>0.9813110009986513</v>
+        <v>1.017119646514397</v>
       </c>
       <c r="F9">
-        <v>0.9399152242539561</v>
+        <v>1.012507646697246</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034976320037877</v>
+        <v>1.0266591824082</v>
       </c>
       <c r="J9">
-        <v>0.9967091220069918</v>
+        <v>1.02134852342094</v>
       </c>
       <c r="K9">
-        <v>1.008260894820274</v>
+        <v>1.025017155716229</v>
       </c>
       <c r="L9">
-        <v>0.9947147509398295</v>
+        <v>1.020345070067533</v>
       </c>
       <c r="M9">
-        <v>0.9540646552738204</v>
+        <v>1.015748813466623</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9607492879348902</v>
+        <v>1.013741235065084</v>
       </c>
       <c r="D10">
-        <v>0.9881165861540586</v>
+        <v>1.020552532862007</v>
       </c>
       <c r="E10">
-        <v>0.9738944208647647</v>
+        <v>1.01569756431084</v>
       </c>
       <c r="F10">
-        <v>0.9255333110893361</v>
+        <v>1.009835468157138</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032145686071138</v>
+        <v>1.026325064581994</v>
       </c>
       <c r="J10">
-        <v>0.9906116479904729</v>
+        <v>1.02023057157659</v>
       </c>
       <c r="K10">
-        <v>1.002703766071907</v>
+        <v>1.024054246803869</v>
       </c>
       <c r="L10">
-        <v>0.9887515780388876</v>
+        <v>1.019217304709761</v>
       </c>
       <c r="M10">
-        <v>0.9413911673728554</v>
+        <v>1.013377230324225</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9565606108573268</v>
+        <v>1.01301445309697</v>
       </c>
       <c r="D11">
-        <v>0.9849801504587424</v>
+        <v>1.02000758030485</v>
       </c>
       <c r="E11">
-        <v>0.9705661000663368</v>
+        <v>1.015081409581992</v>
       </c>
       <c r="F11">
-        <v>0.9190132578345647</v>
+        <v>1.00867681532703</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030850997671127</v>
+        <v>1.026177529600688</v>
       </c>
       <c r="J11">
-        <v>0.9878592374380534</v>
+        <v>1.019744853838168</v>
       </c>
       <c r="K11">
-        <v>1.000190988848938</v>
+        <v>1.023635000857672</v>
       </c>
       <c r="L11">
-        <v>0.9860652950976392</v>
+        <v>1.018727834530254</v>
       </c>
       <c r="M11">
-        <v>0.9356431132230476</v>
+        <v>1.012348256564307</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9549787091526798</v>
+        <v>1.012744334376385</v>
       </c>
       <c r="D12">
-        <v>0.9837961018639475</v>
+        <v>1.01980493241845</v>
       </c>
       <c r="E12">
-        <v>0.9693108519200755</v>
+        <v>1.014852483023902</v>
       </c>
       <c r="F12">
-        <v>0.9165429652716565</v>
+        <v>1.008246191455799</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030359093592864</v>
+        <v>1.026122298464311</v>
       </c>
       <c r="J12">
-        <v>0.986818700797193</v>
+        <v>1.019564188769725</v>
       </c>
       <c r="K12">
-        <v>0.9992404696502312</v>
+        <v>1.023478927405718</v>
       </c>
       <c r="L12">
-        <v>0.9850506108995906</v>
+        <v>1.018545850558692</v>
       </c>
       <c r="M12">
-        <v>0.9334650402031502</v>
+        <v>1.011965730410637</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9553192448852621</v>
+        <v>1.012802283023989</v>
       </c>
       <c r="D13">
-        <v>0.9840509686170391</v>
+        <v>1.01984841142601</v>
       </c>
       <c r="E13">
-        <v>0.9695809892443522</v>
+        <v>1.014901591255269</v>
       </c>
       <c r="F13">
-        <v>0.9170751231891786</v>
+        <v>1.00833857316546</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030465117390495</v>
+        <v>1.026134165199431</v>
       </c>
       <c r="J13">
-        <v>0.987042744521588</v>
+        <v>1.019602953287805</v>
       </c>
       <c r="K13">
-        <v>0.9994451560152975</v>
+        <v>1.023512421407183</v>
       </c>
       <c r="L13">
-        <v>0.9852690492148496</v>
+        <v>1.018584894591283</v>
       </c>
       <c r="M13">
-        <v>0.9339342577435065</v>
+        <v>1.01204779818138</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9564303937629145</v>
+        <v>1.012992128270233</v>
       </c>
       <c r="D14">
-        <v>0.9848826731475626</v>
+        <v>1.019990834030468</v>
       </c>
       <c r="E14">
-        <v>0.9704627363547738</v>
+        <v>1.015062487659491</v>
       </c>
       <c r="F14">
-        <v>0.9188100793868604</v>
+        <v>1.008641224959</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030810565026695</v>
+        <v>1.026172972953675</v>
       </c>
       <c r="J14">
-        <v>0.987773605179888</v>
+        <v>1.019729925074897</v>
       </c>
       <c r="K14">
-        <v>1.000112775938353</v>
+        <v>1.023622106860433</v>
       </c>
       <c r="L14">
-        <v>0.9859817729257083</v>
+        <v>1.018712795216108</v>
       </c>
       <c r="M14">
-        <v>0.9354639743283485</v>
+        <v>1.0123166434063</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9571114959967014</v>
+        <v>1.013109076966806</v>
       </c>
       <c r="D15">
-        <v>0.9853925491636812</v>
+        <v>1.020078555016869</v>
       </c>
       <c r="E15">
-        <v>0.9710034525918859</v>
+        <v>1.015161613343776</v>
       </c>
       <c r="F15">
-        <v>0.9198724772865593</v>
+        <v>1.00882766544373</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031021929050408</v>
+        <v>1.026196826689602</v>
       </c>
       <c r="J15">
-        <v>0.9882214628949549</v>
+        <v>1.019808123680505</v>
       </c>
       <c r="K15">
-        <v>1.000521807421899</v>
+        <v>1.023689641689544</v>
       </c>
       <c r="L15">
-        <v>0.986418629723582</v>
+        <v>1.018791576045142</v>
       </c>
       <c r="M15">
-        <v>0.9364006616282724</v>
+        <v>1.012482245199141</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9610237376909307</v>
+        <v>1.013789446973555</v>
       </c>
       <c r="D16">
-        <v>0.9883221472017444</v>
+        <v>1.020588667627138</v>
       </c>
       <c r="E16">
-        <v>0.9741127319389389</v>
+        <v>1.0157384482495</v>
       </c>
       <c r="F16">
-        <v>0.9259594912171086</v>
+        <v>1.009912329867372</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032230104143717</v>
+        <v>1.026334795704764</v>
       </c>
       <c r="J16">
-        <v>0.990791844344512</v>
+        <v>1.020262772407365</v>
       </c>
       <c r="K16">
-        <v>1.002868190901546</v>
+        <v>1.024082022208322</v>
       </c>
       <c r="L16">
-        <v>0.9889275612729228</v>
+        <v>1.019249765069332</v>
       </c>
       <c r="M16">
-        <v>0.9417668426446397</v>
+        <v>1.013445475649278</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9634335608040419</v>
+        <v>1.01421594385352</v>
       </c>
       <c r="D17">
-        <v>0.9901273478236295</v>
+        <v>1.020908242356359</v>
       </c>
       <c r="E17">
-        <v>0.9760308666987521</v>
+        <v>1.016100177681017</v>
       </c>
       <c r="F17">
-        <v>0.9296963946282343</v>
+        <v>1.010592279975688</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032969062301338</v>
+        <v>1.02642057408674</v>
       </c>
       <c r="J17">
-        <v>0.9923732652985888</v>
+        <v>1.020547521879609</v>
       </c>
       <c r="K17">
-        <v>1.004310723445686</v>
+        <v>1.024327535457025</v>
       </c>
       <c r="L17">
-        <v>0.9904726321766095</v>
+        <v>1.019536868494491</v>
       </c>
       <c r="M17">
-        <v>0.945060628388778</v>
+        <v>1.014049125688754</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9648238508601978</v>
+        <v>1.0144646118186</v>
       </c>
       <c r="D18">
-        <v>0.9911690083943918</v>
+        <v>1.021094499161987</v>
       </c>
       <c r="E18">
-        <v>0.9771385065004203</v>
+        <v>1.016311131422917</v>
       </c>
       <c r="F18">
-        <v>0.9318481710026775</v>
+        <v>1.010988731485821</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033393472486927</v>
+        <v>1.026470331271095</v>
       </c>
       <c r="J18">
-        <v>0.9932849560574259</v>
+        <v>1.020713453592687</v>
       </c>
       <c r="K18">
-        <v>1.005141937469517</v>
+        <v>1.024470517350835</v>
       </c>
       <c r="L18">
-        <v>0.9913638831603254</v>
+        <v>1.019704221151301</v>
       </c>
       <c r="M18">
-        <v>0.9469570058655095</v>
+        <v>1.014401026184804</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9652953614264467</v>
+        <v>1.014549384215175</v>
       </c>
       <c r="D19">
-        <v>0.9915223116353498</v>
+        <v>1.021157983236882</v>
       </c>
       <c r="E19">
-        <v>0.9775143273585205</v>
+        <v>1.016383054983534</v>
       </c>
       <c r="F19">
-        <v>0.9325772661159781</v>
+        <v>1.011123885773421</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033537081956697</v>
+        <v>1.026487250401085</v>
       </c>
       <c r="J19">
-        <v>0.9935940373337788</v>
+        <v>1.020770005303728</v>
       </c>
       <c r="K19">
-        <v>1.005423664500574</v>
+        <v>1.02451923289347</v>
       </c>
       <c r="L19">
-        <v>0.9916661217667928</v>
+        <v>1.019761265487823</v>
       </c>
       <c r="M19">
-        <v>0.9475995188974682</v>
+        <v>1.014520981803951</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9631766075651621</v>
+        <v>1.014170195186135</v>
       </c>
       <c r="D20">
-        <v>0.9899348429174203</v>
+        <v>1.02087397009508</v>
       </c>
       <c r="E20">
-        <v>0.975826234552828</v>
+        <v>1.016061371367202</v>
       </c>
       <c r="F20">
-        <v>0.9292983762107034</v>
+        <v>1.010519343555699</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032890467286125</v>
+        <v>1.026411399418717</v>
       </c>
       <c r="J20">
-        <v>0.992204712188323</v>
+        <v>1.020516987296423</v>
       </c>
       <c r="K20">
-        <v>1.004157015393687</v>
+        <v>1.02430121716396</v>
       </c>
       <c r="L20">
-        <v>0.9903078995813595</v>
+        <v>1.019506076395546</v>
       </c>
       <c r="M20">
-        <v>0.9447098311703546</v>
+        <v>1.01398438034112</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9561039238865363</v>
+        <v>1.012936228003843</v>
       </c>
       <c r="D21">
-        <v>0.9846382937611117</v>
+        <v>1.019948900433635</v>
       </c>
       <c r="E21">
-        <v>0.9702036193100373</v>
+        <v>1.015015109327488</v>
       </c>
       <c r="F21">
-        <v>0.9183005548864893</v>
+        <v>1.008552108500798</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030709148389555</v>
+        <v>1.026161556913021</v>
       </c>
       <c r="J21">
-        <v>0.9875588978629519</v>
+        <v>1.019692541906217</v>
       </c>
       <c r="K21">
-        <v>0.9999166622813574</v>
+        <v>1.023589816813257</v>
       </c>
       <c r="L21">
-        <v>0.9857723700858969</v>
+        <v>1.018675136457506</v>
       </c>
       <c r="M21">
-        <v>0.9350147314656511</v>
+        <v>1.012237484085151</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.951505235250056</v>
+        <v>1.01215945940398</v>
       </c>
       <c r="D22">
-        <v>0.9811972317316464</v>
+        <v>1.01936595126461</v>
       </c>
       <c r="E22">
-        <v>0.966557932726253</v>
+        <v>1.014356939198574</v>
       </c>
       <c r="F22">
-        <v>0.9111027324887981</v>
+        <v>1.007313785808724</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029273658694873</v>
+        <v>1.026001982505603</v>
       </c>
       <c r="J22">
-        <v>0.9845319961228649</v>
+        <v>1.019172745285161</v>
       </c>
       <c r="K22">
-        <v>0.9971506098328001</v>
+        <v>1.02314052380745</v>
       </c>
       <c r="L22">
-        <v>0.9828223257630712</v>
+        <v>1.018151690059562</v>
       </c>
       <c r="M22">
-        <v>0.928667979321924</v>
+        <v>1.011137287829489</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9539581953243361</v>
+        <v>1.01257132771519</v>
       </c>
       <c r="D23">
-        <v>0.9830323989117626</v>
+        <v>1.019675109287694</v>
       </c>
       <c r="E23">
-        <v>0.9685015687538074</v>
+        <v>1.014705880754276</v>
       </c>
       <c r="F23">
-        <v>0.9149469380856885</v>
+        <v>1.007970384649254</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030040937454181</v>
+        <v>1.026086811947839</v>
       </c>
       <c r="J23">
-        <v>0.9861471347821517</v>
+        <v>1.019448435980173</v>
       </c>
       <c r="K23">
-        <v>0.9986268481873272</v>
+        <v>1.023378893243347</v>
       </c>
       <c r="L23">
-        <v>0.9843959742744628</v>
+        <v>1.018429274378744</v>
       </c>
       <c r="M23">
-        <v>0.932057750373755</v>
+        <v>1.011720701573994</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9632927608686346</v>
+        <v>1.014190867349998</v>
       </c>
       <c r="D24">
-        <v>0.9900218623671178</v>
+        <v>1.020889456705052</v>
       </c>
       <c r="E24">
-        <v>0.9759187334445586</v>
+        <v>1.016078906384106</v>
       </c>
       <c r="F24">
-        <v>0.929478309476065</v>
+        <v>1.010552300852707</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032926001375484</v>
+        <v>1.026415545908778</v>
       </c>
       <c r="J24">
-        <v>0.9922809071307335</v>
+        <v>1.020530785047862</v>
       </c>
       <c r="K24">
-        <v>1.004226500852999</v>
+        <v>1.024313109953169</v>
       </c>
       <c r="L24">
-        <v>0.9903823658476881</v>
+        <v>1.019519990359228</v>
       </c>
       <c r="M24">
-        <v>0.9448684177852089</v>
+        <v>1.014013636588841</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9735292441948001</v>
+        <v>1.016066322145164</v>
       </c>
       <c r="D25">
-        <v>0.9976936436730919</v>
+        <v>1.022292926547201</v>
       </c>
       <c r="E25">
-        <v>0.984091231824167</v>
+        <v>1.017670783409176</v>
       </c>
       <c r="F25">
-        <v>0.9452579767907737</v>
+        <v>1.013542550847414</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036016259385497</v>
+        <v>1.026786201861421</v>
       </c>
       <c r="J25">
-        <v>0.9989815166427335</v>
+        <v>1.021780605678944</v>
       </c>
       <c r="K25">
-        <v>1.010327868672723</v>
+        <v>1.025388518674154</v>
       </c>
       <c r="L25">
-        <v>0.9969416354625407</v>
+        <v>1.020781399307345</v>
       </c>
       <c r="M25">
-        <v>0.9587700162505015</v>
+        <v>1.01666671213319</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_129/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_129/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017559111064485</v>
+        <v>0.9812750133823841</v>
       </c>
       <c r="D2">
-        <v>1.023407764977146</v>
+        <v>1.003499964226778</v>
       </c>
       <c r="E2">
-        <v>1.018939353641001</v>
+        <v>0.9903030030288308</v>
       </c>
       <c r="F2">
-        <v>1.015923187398002</v>
+        <v>0.9571077180409761</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02707312312399</v>
+        <v>1.038293036964869</v>
       </c>
       <c r="J2">
-        <v>1.022772538728435</v>
+        <v>1.004030583141123</v>
       </c>
       <c r="K2">
-        <v>1.026239292359949</v>
+        <v>1.014910753397613</v>
       </c>
       <c r="L2">
-        <v>1.02178408081615</v>
+        <v>1.001899106209321</v>
       </c>
       <c r="M2">
-        <v>1.018776895882761</v>
+        <v>0.9691988186735878</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018641279331411</v>
+        <v>0.9866823439261853</v>
       </c>
       <c r="D3">
-        <v>1.02421460950286</v>
+        <v>1.007552116354408</v>
       </c>
       <c r="E3">
-        <v>1.01985983518596</v>
+        <v>0.9946541441699085</v>
       </c>
       <c r="F3">
-        <v>1.017649398123509</v>
+        <v>0.9653413883578652</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027276406361592</v>
+        <v>1.039845521827299</v>
       </c>
       <c r="J3">
-        <v>1.023489949910739</v>
+        <v>1.007542765242068</v>
       </c>
       <c r="K3">
-        <v>1.026853009402694</v>
+        <v>1.018089269865249</v>
       </c>
       <c r="L3">
-        <v>1.022510164933683</v>
+        <v>1.005355886309721</v>
       </c>
       <c r="M3">
-        <v>1.02030582566243</v>
+        <v>0.9764378188275739</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01934073110362</v>
+        <v>0.990088520639957</v>
       </c>
       <c r="D4">
-        <v>1.024735482784014</v>
+        <v>1.010103469913794</v>
       </c>
       <c r="E4">
-        <v>1.020455173958533</v>
+        <v>0.9974014011976874</v>
       </c>
       <c r="F4">
-        <v>1.018765352390039</v>
+        <v>0.9705138606334948</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027405610608922</v>
+        <v>1.040805932586319</v>
       </c>
       <c r="J4">
-        <v>1.023952868757091</v>
+        <v>1.009749206713584</v>
       </c>
       <c r="K4">
-        <v>1.027248272090583</v>
+        <v>1.020081465361995</v>
       </c>
       <c r="L4">
-        <v>1.022979096177411</v>
+        <v>1.007531290529476</v>
       </c>
       <c r="M4">
-        <v>1.021293697580629</v>
+        <v>0.980981685116789</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019634595154042</v>
+        <v>0.99149930978872</v>
       </c>
       <c r="D5">
-        <v>1.024954169127289</v>
+        <v>1.011159838366435</v>
       </c>
       <c r="E5">
-        <v>1.020705389772821</v>
+        <v>0.998540753600817</v>
       </c>
       <c r="F5">
-        <v>1.019234264465888</v>
+        <v>0.972653356609147</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027459369549374</v>
+        <v>1.041199448457012</v>
       </c>
       <c r="J5">
-        <v>1.024147171354864</v>
+        <v>1.010661635264924</v>
       </c>
       <c r="K5">
-        <v>1.02741399762755</v>
+        <v>1.020904144203958</v>
       </c>
       <c r="L5">
-        <v>1.023176022035219</v>
+        <v>1.00843177916983</v>
       </c>
       <c r="M5">
-        <v>1.021708660131189</v>
+        <v>0.982860224294731</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019683925405109</v>
+        <v>0.9917349748140497</v>
       </c>
       <c r="D6">
-        <v>1.024990870611201</v>
+        <v>1.011336275377618</v>
       </c>
       <c r="E6">
-        <v>1.020747398351298</v>
+        <v>0.9987311618837893</v>
       </c>
       <c r="F6">
-        <v>1.01931298334031</v>
+        <v>0.973010593687538</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027468363163718</v>
+        <v>1.04126493007877</v>
       </c>
       <c r="J6">
-        <v>1.024179777564817</v>
+        <v>1.01081396598381</v>
       </c>
       <c r="K6">
-        <v>1.027441797725</v>
+        <v>1.021041422131588</v>
       </c>
       <c r="L6">
-        <v>1.023209074304714</v>
+        <v>1.008582168907411</v>
       </c>
       <c r="M6">
-        <v>1.021778314528212</v>
+        <v>0.9831738318280288</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019344658455674</v>
+        <v>0.9901074535384708</v>
       </c>
       <c r="D7">
-        <v>1.024738406015585</v>
+        <v>1.010117648013245</v>
       </c>
       <c r="E7">
-        <v>1.020458517607056</v>
+        <v>0.9974166856185459</v>
       </c>
       <c r="F7">
-        <v>1.018771618928847</v>
+        <v>0.9705425835357681</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027406331133</v>
+        <v>1.04081123058659</v>
       </c>
       <c r="J7">
-        <v>1.023955466248429</v>
+        <v>1.009761457328802</v>
       </c>
       <c r="K7">
-        <v>1.027250488262688</v>
+        <v>1.020092515580501</v>
       </c>
       <c r="L7">
-        <v>1.022981728345308</v>
+        <v>1.007543377303754</v>
       </c>
       <c r="M7">
-        <v>1.021299243652166</v>
+        <v>0.9810069084559188</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017924998380114</v>
+        <v>0.9831222917739141</v>
       </c>
       <c r="D8">
-        <v>1.023680692622323</v>
+        <v>1.004884473901368</v>
       </c>
       <c r="E8">
-        <v>1.019250492143294</v>
+        <v>0.9917880793002518</v>
       </c>
       <c r="F8">
-        <v>1.016506784903975</v>
+        <v>0.9599238336676318</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027142306924615</v>
+        <v>1.03882705440773</v>
       </c>
       <c r="J8">
-        <v>1.023015259973391</v>
+        <v>1.005231671555702</v>
       </c>
       <c r="K8">
-        <v>1.026447085118599</v>
+        <v>1.015998685902944</v>
       </c>
       <c r="L8">
-        <v>1.022029650078783</v>
+        <v>1.003080447393018</v>
       </c>
       <c r="M8">
-        <v>1.019293909375985</v>
+        <v>0.9716754925492216</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015417280839279</v>
+        <v>0.9700526431545088</v>
       </c>
       <c r="D9">
-        <v>1.02180757455596</v>
+        <v>0.9950876115498707</v>
       </c>
       <c r="E9">
-        <v>1.017119646514397</v>
+        <v>0.9813110009986517</v>
       </c>
       <c r="F9">
-        <v>1.012507646697246</v>
+        <v>0.9399152242539572</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0266591824082</v>
+        <v>1.034976320037877</v>
       </c>
       <c r="J9">
-        <v>1.02134852342094</v>
+        <v>0.9967091220069922</v>
       </c>
       <c r="K9">
-        <v>1.025017155716229</v>
+        <v>1.008260894820274</v>
       </c>
       <c r="L9">
-        <v>1.020345070067533</v>
+        <v>0.9947147509398298</v>
       </c>
       <c r="M9">
-        <v>1.015748813466623</v>
+        <v>0.9540646552738213</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013741235065084</v>
+        <v>0.9607492879348897</v>
       </c>
       <c r="D10">
-        <v>1.020552532862007</v>
+        <v>0.9881165861540583</v>
       </c>
       <c r="E10">
-        <v>1.01569756431084</v>
+        <v>0.9738944208647639</v>
       </c>
       <c r="F10">
-        <v>1.009835468157138</v>
+        <v>0.9255333110893355</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026325064581994</v>
+        <v>1.032145686071138</v>
       </c>
       <c r="J10">
-        <v>1.02023057157659</v>
+        <v>0.9906116479904723</v>
       </c>
       <c r="K10">
-        <v>1.024054246803869</v>
+        <v>1.002703766071906</v>
       </c>
       <c r="L10">
-        <v>1.019217304709761</v>
+        <v>0.9887515780388869</v>
       </c>
       <c r="M10">
-        <v>1.013377230324225</v>
+        <v>0.9413911673728548</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01301445309697</v>
+        <v>0.9565606108573269</v>
       </c>
       <c r="D11">
-        <v>1.02000758030485</v>
+        <v>0.9849801504587424</v>
       </c>
       <c r="E11">
-        <v>1.015081409581992</v>
+        <v>0.970566100066337</v>
       </c>
       <c r="F11">
-        <v>1.00867681532703</v>
+        <v>0.9190132578345657</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026177529600688</v>
+        <v>1.030850997671128</v>
       </c>
       <c r="J11">
-        <v>1.019744853838168</v>
+        <v>0.9878592374380536</v>
       </c>
       <c r="K11">
-        <v>1.023635000857672</v>
+        <v>1.000190988848938</v>
       </c>
       <c r="L11">
-        <v>1.018727834530254</v>
+        <v>0.9860652950976393</v>
       </c>
       <c r="M11">
-        <v>1.012348256564307</v>
+        <v>0.9356431132230488</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012744334376385</v>
+        <v>0.9549787091526788</v>
       </c>
       <c r="D12">
-        <v>1.01980493241845</v>
+        <v>0.9837961018639469</v>
       </c>
       <c r="E12">
-        <v>1.014852483023902</v>
+        <v>0.9693108519200747</v>
       </c>
       <c r="F12">
-        <v>1.008246191455799</v>
+        <v>0.9165429652716557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026122298464311</v>
+        <v>1.030359093592863</v>
       </c>
       <c r="J12">
-        <v>1.019564188769725</v>
+        <v>0.9868187007971924</v>
       </c>
       <c r="K12">
-        <v>1.023478927405718</v>
+        <v>0.9992404696502306</v>
       </c>
       <c r="L12">
-        <v>1.018545850558692</v>
+        <v>0.9850506108995897</v>
       </c>
       <c r="M12">
-        <v>1.011965730410637</v>
+        <v>0.9334650402031492</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012802283023989</v>
+        <v>0.9553192448852605</v>
       </c>
       <c r="D13">
-        <v>1.01984841142601</v>
+        <v>0.9840509686170381</v>
       </c>
       <c r="E13">
-        <v>1.014901591255269</v>
+        <v>0.9695809892443509</v>
       </c>
       <c r="F13">
-        <v>1.00833857316546</v>
+        <v>0.9170751231891781</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026134165199431</v>
+        <v>1.030465117390495</v>
       </c>
       <c r="J13">
-        <v>1.019602953287805</v>
+        <v>0.9870427445215868</v>
       </c>
       <c r="K13">
-        <v>1.023512421407183</v>
+        <v>0.9994451560152964</v>
       </c>
       <c r="L13">
-        <v>1.018584894591283</v>
+        <v>0.9852690492148484</v>
       </c>
       <c r="M13">
-        <v>1.01204779818138</v>
+        <v>0.9339342577435057</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012992128270233</v>
+        <v>0.9564303937629142</v>
       </c>
       <c r="D14">
-        <v>1.019990834030468</v>
+        <v>0.9848826731475621</v>
       </c>
       <c r="E14">
-        <v>1.015062487659491</v>
+        <v>0.9704627363547732</v>
       </c>
       <c r="F14">
-        <v>1.008641224959</v>
+        <v>0.9188100793868599</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026172972953675</v>
+        <v>1.030810565026695</v>
       </c>
       <c r="J14">
-        <v>1.019729925074897</v>
+        <v>0.9877736051798875</v>
       </c>
       <c r="K14">
-        <v>1.023622106860433</v>
+        <v>1.000112775938353</v>
       </c>
       <c r="L14">
-        <v>1.018712795216108</v>
+        <v>0.9859817729257078</v>
       </c>
       <c r="M14">
-        <v>1.0123166434063</v>
+        <v>0.9354639743283478</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013109076966806</v>
+        <v>0.9571114959967008</v>
       </c>
       <c r="D15">
-        <v>1.020078555016869</v>
+        <v>0.9853925491636805</v>
       </c>
       <c r="E15">
-        <v>1.015161613343776</v>
+        <v>0.9710034525918853</v>
       </c>
       <c r="F15">
-        <v>1.00882766544373</v>
+        <v>0.9198724772865582</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026196826689602</v>
+        <v>1.031021929050408</v>
       </c>
       <c r="J15">
-        <v>1.019808123680505</v>
+        <v>0.9882214628949542</v>
       </c>
       <c r="K15">
-        <v>1.023689641689544</v>
+        <v>1.000521807421898</v>
       </c>
       <c r="L15">
-        <v>1.018791576045142</v>
+        <v>0.9864186297235812</v>
       </c>
       <c r="M15">
-        <v>1.012482245199141</v>
+        <v>0.9364006616282712</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013789446973555</v>
+        <v>0.9610237376909314</v>
       </c>
       <c r="D16">
-        <v>1.020588667627138</v>
+        <v>0.9883221472017455</v>
       </c>
       <c r="E16">
-        <v>1.0157384482495</v>
+        <v>0.974112731938939</v>
       </c>
       <c r="F16">
-        <v>1.009912329867372</v>
+        <v>0.9259594912171101</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026334795704764</v>
+        <v>1.032230104143718</v>
       </c>
       <c r="J16">
-        <v>1.020262772407365</v>
+        <v>0.9907918443445125</v>
       </c>
       <c r="K16">
-        <v>1.024082022208322</v>
+        <v>1.002868190901547</v>
       </c>
       <c r="L16">
-        <v>1.019249765069332</v>
+        <v>0.988927561272923</v>
       </c>
       <c r="M16">
-        <v>1.013445475649278</v>
+        <v>0.9417668426446412</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01421594385352</v>
+        <v>0.9634335608040423</v>
       </c>
       <c r="D17">
-        <v>1.020908242356359</v>
+        <v>0.9901273478236299</v>
       </c>
       <c r="E17">
-        <v>1.016100177681017</v>
+        <v>0.9760308666987524</v>
       </c>
       <c r="F17">
-        <v>1.010592279975688</v>
+        <v>0.9296963946282355</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02642057408674</v>
+        <v>1.032969062301338</v>
       </c>
       <c r="J17">
-        <v>1.020547521879609</v>
+        <v>0.9923732652985894</v>
       </c>
       <c r="K17">
-        <v>1.024327535457025</v>
+        <v>1.004310723445686</v>
       </c>
       <c r="L17">
-        <v>1.019536868494491</v>
+        <v>0.99047263217661</v>
       </c>
       <c r="M17">
-        <v>1.014049125688754</v>
+        <v>0.945060628388779</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.0144646118186</v>
+        <v>0.9648238508601984</v>
       </c>
       <c r="D18">
-        <v>1.021094499161987</v>
+        <v>0.9911690083943921</v>
       </c>
       <c r="E18">
-        <v>1.016311131422917</v>
+        <v>0.9771385065004203</v>
       </c>
       <c r="F18">
-        <v>1.010988731485821</v>
+        <v>0.9318481710026776</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026470331271095</v>
+        <v>1.033393472486927</v>
       </c>
       <c r="J18">
-        <v>1.020713453592687</v>
+        <v>0.9932849560574264</v>
       </c>
       <c r="K18">
-        <v>1.024470517350835</v>
+        <v>1.005141937469517</v>
       </c>
       <c r="L18">
-        <v>1.019704221151301</v>
+        <v>0.9913638831603255</v>
       </c>
       <c r="M18">
-        <v>1.014401026184804</v>
+        <v>0.9469570058655097</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014549384215175</v>
+        <v>0.9652953614264468</v>
       </c>
       <c r="D19">
-        <v>1.021157983236882</v>
+        <v>0.9915223116353499</v>
       </c>
       <c r="E19">
-        <v>1.016383054983534</v>
+        <v>0.9775143273585207</v>
       </c>
       <c r="F19">
-        <v>1.011123885773421</v>
+        <v>0.9325772661159785</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026487250401085</v>
+        <v>1.033537081956697</v>
       </c>
       <c r="J19">
-        <v>1.020770005303728</v>
+        <v>0.993594037333779</v>
       </c>
       <c r="K19">
-        <v>1.02451923289347</v>
+        <v>1.005423664500574</v>
       </c>
       <c r="L19">
-        <v>1.019761265487823</v>
+        <v>0.9916661217667931</v>
       </c>
       <c r="M19">
-        <v>1.014520981803951</v>
+        <v>0.9475995188974685</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014170195186135</v>
+        <v>0.9631766075651621</v>
       </c>
       <c r="D20">
-        <v>1.02087397009508</v>
+        <v>0.9899348429174203</v>
       </c>
       <c r="E20">
-        <v>1.016061371367202</v>
+        <v>0.9758262345528279</v>
       </c>
       <c r="F20">
-        <v>1.010519343555699</v>
+        <v>0.9292983762107034</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026411399418717</v>
+        <v>1.032890467286126</v>
       </c>
       <c r="J20">
-        <v>1.020516987296423</v>
+        <v>0.992204712188323</v>
       </c>
       <c r="K20">
-        <v>1.02430121716396</v>
+        <v>1.004157015393687</v>
       </c>
       <c r="L20">
-        <v>1.019506076395546</v>
+        <v>0.9903078995813595</v>
       </c>
       <c r="M20">
-        <v>1.01398438034112</v>
+        <v>0.9447098311703547</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012936228003843</v>
+        <v>0.9561039238865362</v>
       </c>
       <c r="D21">
-        <v>1.019948900433635</v>
+        <v>0.9846382937611114</v>
       </c>
       <c r="E21">
-        <v>1.015015109327488</v>
+        <v>0.970203619310037</v>
       </c>
       <c r="F21">
-        <v>1.008552108500798</v>
+        <v>0.9183005548864893</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026161556913021</v>
+        <v>1.030709148389555</v>
       </c>
       <c r="J21">
-        <v>1.019692541906217</v>
+        <v>0.9875588978629518</v>
       </c>
       <c r="K21">
-        <v>1.023589816813257</v>
+        <v>0.9999166622813572</v>
       </c>
       <c r="L21">
-        <v>1.018675136457506</v>
+        <v>0.9857723700858967</v>
       </c>
       <c r="M21">
-        <v>1.012237484085151</v>
+        <v>0.9350147314656512</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01215945940398</v>
+        <v>0.951505235250057</v>
       </c>
       <c r="D22">
-        <v>1.01936595126461</v>
+        <v>0.9811972317316475</v>
       </c>
       <c r="E22">
-        <v>1.014356939198574</v>
+        <v>0.9665579327262542</v>
       </c>
       <c r="F22">
-        <v>1.007313785808724</v>
+        <v>0.9111027324887995</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026001982505603</v>
+        <v>1.029273658694874</v>
       </c>
       <c r="J22">
-        <v>1.019172745285161</v>
+        <v>0.9845319961228659</v>
       </c>
       <c r="K22">
-        <v>1.02314052380745</v>
+        <v>0.9971506098328011</v>
       </c>
       <c r="L22">
-        <v>1.018151690059562</v>
+        <v>0.9828223257630722</v>
       </c>
       <c r="M22">
-        <v>1.011137287829489</v>
+        <v>0.9286679793219254</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01257132771519</v>
+        <v>0.953958195324336</v>
       </c>
       <c r="D23">
-        <v>1.019675109287694</v>
+        <v>0.9830323989117624</v>
       </c>
       <c r="E23">
-        <v>1.014705880754276</v>
+        <v>0.9685015687538071</v>
       </c>
       <c r="F23">
-        <v>1.007970384649254</v>
+        <v>0.9149469380856879</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026086811947839</v>
+        <v>1.030040937454181</v>
       </c>
       <c r="J23">
-        <v>1.019448435980173</v>
+        <v>0.9861471347821513</v>
       </c>
       <c r="K23">
-        <v>1.023378893243347</v>
+        <v>0.9986268481873268</v>
       </c>
       <c r="L23">
-        <v>1.018429274378744</v>
+        <v>0.9843959742744623</v>
       </c>
       <c r="M23">
-        <v>1.011720701573994</v>
+        <v>0.9320577503737545</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014190867349998</v>
+        <v>0.963292760868634</v>
       </c>
       <c r="D24">
-        <v>1.020889456705052</v>
+        <v>0.990021862367117</v>
       </c>
       <c r="E24">
-        <v>1.016078906384106</v>
+        <v>0.9759187334445582</v>
       </c>
       <c r="F24">
-        <v>1.010552300852707</v>
+        <v>0.9294783094760634</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026415545908778</v>
+        <v>1.032926001375484</v>
       </c>
       <c r="J24">
-        <v>1.020530785047862</v>
+        <v>0.9922809071307329</v>
       </c>
       <c r="K24">
-        <v>1.024313109953169</v>
+        <v>1.004226500852998</v>
       </c>
       <c r="L24">
-        <v>1.019519990359228</v>
+        <v>0.9903823658476876</v>
       </c>
       <c r="M24">
-        <v>1.014013636588841</v>
+        <v>0.9448684177852076</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016066322145164</v>
+        <v>0.9735292441948016</v>
       </c>
       <c r="D25">
-        <v>1.022292926547201</v>
+        <v>0.997693643673093</v>
       </c>
       <c r="E25">
-        <v>1.017670783409176</v>
+        <v>0.9840912318241681</v>
       </c>
       <c r="F25">
-        <v>1.013542550847414</v>
+        <v>0.9452579767907751</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026786201861421</v>
+        <v>1.036016259385497</v>
       </c>
       <c r="J25">
-        <v>1.021780605678944</v>
+        <v>0.9989815166427347</v>
       </c>
       <c r="K25">
-        <v>1.025388518674154</v>
+        <v>1.010327868672724</v>
       </c>
       <c r="L25">
-        <v>1.020781399307345</v>
+        <v>0.9969416354625417</v>
       </c>
       <c r="M25">
-        <v>1.01666671213319</v>
+        <v>0.9587700162505028</v>
       </c>
     </row>
   </sheetData>
